--- a/pvals4_Schwann_d.xlsx
+++ b/pvals4_Schwann_d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ChristerSylven/Desktop/CMC_ms/GitHub_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ChristerSylven/Human-Prenatal-Cardiomyocytes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8326C89-B222-904A-A791-AC9D9E066192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A26D782-BE55-7440-A706-631A78CC984F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="24440" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="0" windowWidth="24440" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="109">
   <si>
     <t>2|15</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>PGF_FLT1 complex</t>
+  </si>
+  <si>
+    <t>PROS1_AXL</t>
   </si>
 </sst>
 </file>
@@ -738,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3551,49 +3554,49 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K57" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>16</v>
+      <c r="M57" t="s">
+        <v>17</v>
       </c>
       <c r="N57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O57" t="s">
         <v>17</v>
       </c>
       <c r="P57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -3601,40 +3604,40 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
-      </c>
-      <c r="M58" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="N58" t="s">
         <v>17</v>
@@ -3643,15 +3646,15 @@
         <v>17</v>
       </c>
       <c r="P58" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3660,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3669,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -3678,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3693,45 +3696,45 @@
         <v>17</v>
       </c>
       <c r="P59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M60" t="s">
         <v>17</v>
@@ -3743,56 +3746,106 @@
         <v>17</v>
       </c>
       <c r="P60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>0.46</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.18</v>
+      </c>
+      <c r="F61">
+        <v>0.24</v>
+      </c>
+      <c r="G61">
+        <v>0.3</v>
+      </c>
+      <c r="H61">
+        <v>0.09</v>
+      </c>
+      <c r="I61">
+        <v>0.03</v>
+      </c>
+      <c r="J61">
+        <v>0.18</v>
+      </c>
+      <c r="K61" t="s">
+        <v>75</v>
+      </c>
+      <c r="L61" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" t="s">
+        <v>17</v>
+      </c>
+      <c r="O61" t="s">
+        <v>17</v>
+      </c>
+      <c r="P61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>0.12</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
         <v>0.03</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>0.12</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>0.03</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K62" t="s">
         <v>76</v>
       </c>
-      <c r="L61" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" t="s">
-        <v>17</v>
-      </c>
-      <c r="N61" t="s">
-        <v>17</v>
-      </c>
-      <c r="O61" t="s">
-        <v>17</v>
-      </c>
-      <c r="P61" t="s">
+      <c r="L62" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N62" t="s">
+        <v>17</v>
+      </c>
+      <c r="O62" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" t="s">
         <v>76</v>
       </c>
     </row>
